--- a/data/surge/surgeData052.xlsx
+++ b/data/surge/surgeData052.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/NAR/CH4_052_Lake_Zoar/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="505" documentId="8_{40D34F27-C136-41A5-983C-68051C77123F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{676F72A6-4F41-43FC-9BF6-DAA3C1970FB9}"/>
+  <xr:revisionPtr revIDLastSave="509" documentId="8_{40D34F27-C136-41A5-983C-68051C77123F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00891BEE-76C0-4197-9DFD-5B8FBFD55B3D}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">data!$B$2:$BP$47</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1679,8 +1679,8 @@
   <dimension ref="A1:BZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AX19" sqref="AX19:BF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2125,52 +2125,52 @@
         <v>3.3</v>
       </c>
       <c r="AB3">
+        <v>0.1</v>
+      </c>
+      <c r="AC3">
+        <v>24</v>
+      </c>
+      <c r="AD3">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="AE3">
+        <v>288.60000000000002</v>
+      </c>
+      <c r="AF3">
+        <v>7.62</v>
+      </c>
+      <c r="AG3">
+        <v>0.44</v>
+      </c>
+      <c r="AH3">
+        <v>-0.1</v>
+      </c>
+      <c r="AI3">
+        <v>-0.25</v>
+      </c>
+      <c r="AX3">
         <v>2.8</v>
       </c>
-      <c r="AC3">
+      <c r="AY3">
         <v>22.7</v>
       </c>
-      <c r="AD3">
+      <c r="AZ3">
         <v>7.78</v>
       </c>
-      <c r="AE3">
+      <c r="BA3">
         <v>294.7</v>
       </c>
-      <c r="AF3">
+      <c r="BB3">
         <v>7.56</v>
       </c>
-      <c r="AG3">
+      <c r="BC3">
         <v>0.26</v>
       </c>
-      <c r="AH3">
+      <c r="BD3">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AI3">
+      <c r="BE3">
         <v>-0.38</v>
-      </c>
-      <c r="AX3">
-        <v>0.1</v>
-      </c>
-      <c r="AY3">
-        <v>24</v>
-      </c>
-      <c r="AZ3">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="BA3">
-        <v>288.60000000000002</v>
-      </c>
-      <c r="BB3">
-        <v>7.62</v>
-      </c>
-      <c r="BC3">
-        <v>0.44</v>
-      </c>
-      <c r="BD3">
-        <v>-0.1</v>
-      </c>
-      <c r="BE3">
-        <v>-0.25</v>
       </c>
       <c r="BT3" t="s">
         <v>208</v>
@@ -2247,52 +2247,52 @@
         <v>5.9</v>
       </c>
       <c r="AB4">
+        <v>0.1</v>
+      </c>
+      <c r="AC4">
+        <v>23.5</v>
+      </c>
+      <c r="AD4">
+        <v>7.95</v>
+      </c>
+      <c r="AE4">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="AF4">
+        <v>7.58</v>
+      </c>
+      <c r="AG4">
+        <v>0.64</v>
+      </c>
+      <c r="AH4">
+        <v>-0.12</v>
+      </c>
+      <c r="AI4">
+        <v>-0.12</v>
+      </c>
+      <c r="AX4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AC4">
+      <c r="AY4">
         <v>22.3</v>
       </c>
-      <c r="AD4">
+      <c r="AZ4">
         <v>7.63</v>
       </c>
-      <c r="AE4">
+      <c r="BA4">
         <v>302.7</v>
       </c>
-      <c r="AF4">
+      <c r="BB4">
         <v>7.54</v>
       </c>
-      <c r="AG4">
+      <c r="BC4">
         <v>0.84</v>
       </c>
-      <c r="AH4">
+      <c r="BD4">
         <v>-0.09</v>
       </c>
-      <c r="AI4">
+      <c r="BE4">
         <v>0.12</v>
-      </c>
-      <c r="AX4">
-        <v>0.1</v>
-      </c>
-      <c r="AY4">
-        <v>23.5</v>
-      </c>
-      <c r="AZ4">
-        <v>7.95</v>
-      </c>
-      <c r="BA4">
-        <v>301.39999999999998</v>
-      </c>
-      <c r="BB4">
-        <v>7.58</v>
-      </c>
-      <c r="BC4">
-        <v>0.64</v>
-      </c>
-      <c r="BD4">
-        <v>-0.12</v>
-      </c>
-      <c r="BE4">
-        <v>-0.12</v>
       </c>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.3">
@@ -2351,52 +2351,52 @@
         <v>5.9</v>
       </c>
       <c r="AB5">
+        <v>0.1</v>
+      </c>
+      <c r="AC5">
+        <v>23.5</v>
+      </c>
+      <c r="AD5">
+        <v>7.81</v>
+      </c>
+      <c r="AE5">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="AF5">
+        <v>7.58</v>
+      </c>
+      <c r="AG5">
+        <v>0.79</v>
+      </c>
+      <c r="AH5">
+        <v>-0.11</v>
+      </c>
+      <c r="AI5">
+        <v>-0.19</v>
+      </c>
+      <c r="AX5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AC5">
+      <c r="AY5">
         <v>22.3</v>
       </c>
-      <c r="AD5">
+      <c r="AZ5">
         <v>7.55</v>
       </c>
-      <c r="AE5">
+      <c r="BA5">
         <v>297.2</v>
       </c>
-      <c r="AF5">
+      <c r="BB5">
         <v>7.54</v>
       </c>
-      <c r="AG5">
+      <c r="BC5">
         <v>0.63</v>
       </c>
-      <c r="AH5">
+      <c r="BD5">
         <v>-0.12</v>
       </c>
-      <c r="AI5">
+      <c r="BE5">
         <v>-0.02</v>
-      </c>
-      <c r="AX5">
-        <v>0.1</v>
-      </c>
-      <c r="AY5">
-        <v>23.5</v>
-      </c>
-      <c r="AZ5">
-        <v>7.81</v>
-      </c>
-      <c r="BA5">
-        <v>299.39999999999998</v>
-      </c>
-      <c r="BB5">
-        <v>7.58</v>
-      </c>
-      <c r="BC5">
-        <v>0.79</v>
-      </c>
-      <c r="BD5">
-        <v>-0.11</v>
-      </c>
-      <c r="BE5">
-        <v>-0.19</v>
       </c>
     </row>
     <row r="6" spans="1:78" x14ac:dyDescent="0.3">
@@ -2452,52 +2452,52 @@
         <v>6.7</v>
       </c>
       <c r="AB6">
+        <v>0.1</v>
+      </c>
+      <c r="AC6">
+        <v>25</v>
+      </c>
+      <c r="AD6">
+        <v>8.85</v>
+      </c>
+      <c r="AE6">
+        <v>297.2</v>
+      </c>
+      <c r="AF6">
+        <v>7.69</v>
+      </c>
+      <c r="AG6">
+        <v>1.54</v>
+      </c>
+      <c r="AH6">
+        <v>-0.08</v>
+      </c>
+      <c r="AI6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AX6">
         <v>5.7</v>
       </c>
-      <c r="AC6">
+      <c r="AY6">
         <v>22.4</v>
       </c>
-      <c r="AD6">
+      <c r="AZ6">
         <v>7.05</v>
       </c>
-      <c r="AE6">
+      <c r="BA6">
         <v>296.5</v>
       </c>
-      <c r="AF6">
+      <c r="BB6">
         <v>7.53</v>
       </c>
-      <c r="AG6">
+      <c r="BC6">
         <v>0.7</v>
       </c>
-      <c r="AH6">
+      <c r="BD6">
         <v>-0.11</v>
       </c>
-      <c r="AI6">
+      <c r="BE6">
         <v>0.17</v>
-      </c>
-      <c r="AX6">
-        <v>0.1</v>
-      </c>
-      <c r="AY6">
-        <v>25</v>
-      </c>
-      <c r="AZ6">
-        <v>8.85</v>
-      </c>
-      <c r="BA6">
-        <v>297.2</v>
-      </c>
-      <c r="BB6">
-        <v>7.69</v>
-      </c>
-      <c r="BC6">
-        <v>1.54</v>
-      </c>
-      <c r="BD6">
-        <v>-0.08</v>
-      </c>
-      <c r="BE6">
-        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.3">
@@ -2556,52 +2556,52 @@
         <v>4.5</v>
       </c>
       <c r="AB7">
+        <v>0.1</v>
+      </c>
+      <c r="AC7">
+        <v>24.7</v>
+      </c>
+      <c r="AD7">
+        <v>8.69</v>
+      </c>
+      <c r="AE7">
+        <v>297.39999999999998</v>
+      </c>
+      <c r="AF7">
+        <v>7.69</v>
+      </c>
+      <c r="AG7">
+        <v>1.82</v>
+      </c>
+      <c r="AH7">
+        <v>-0.08</v>
+      </c>
+      <c r="AI7">
+        <v>0.2</v>
+      </c>
+      <c r="AX7">
         <v>3.5</v>
       </c>
-      <c r="AC7">
+      <c r="AY7">
         <v>22.6</v>
       </c>
-      <c r="AD7">
+      <c r="AZ7">
         <v>7.7</v>
       </c>
-      <c r="AE7">
+      <c r="BA7">
         <v>296.39999999999998</v>
       </c>
-      <c r="AF7">
+      <c r="BB7">
         <v>7.56</v>
       </c>
-      <c r="AG7">
+      <c r="BC7">
         <v>0.8</v>
       </c>
-      <c r="AH7">
+      <c r="BD7">
         <v>-0.13</v>
       </c>
-      <c r="AI7">
+      <c r="BE7">
         <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0.1</v>
-      </c>
-      <c r="AY7">
-        <v>24.7</v>
-      </c>
-      <c r="AZ7">
-        <v>8.69</v>
-      </c>
-      <c r="BA7">
-        <v>297.39999999999998</v>
-      </c>
-      <c r="BB7">
-        <v>7.69</v>
-      </c>
-      <c r="BC7">
-        <v>1.82</v>
-      </c>
-      <c r="BD7">
-        <v>-0.08</v>
-      </c>
-      <c r="BE7">
-        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.3">
@@ -2660,52 +2660,52 @@
         <v>3.5</v>
       </c>
       <c r="AB8">
+        <v>0.1</v>
+      </c>
+      <c r="AC8">
+        <v>24.6</v>
+      </c>
+      <c r="AD8">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="AE8">
+        <v>297.5</v>
+      </c>
+      <c r="AF8">
+        <v>7.68</v>
+      </c>
+      <c r="AG8">
+        <v>2.37</v>
+      </c>
+      <c r="AH8">
+        <v>-0.08</v>
+      </c>
+      <c r="AI8">
+        <v>0.18</v>
+      </c>
+      <c r="AX8">
         <v>3</v>
       </c>
-      <c r="AC8">
+      <c r="AY8">
         <v>22.9</v>
       </c>
-      <c r="AD8">
+      <c r="AZ8">
         <v>8.02</v>
       </c>
-      <c r="AE8">
+      <c r="BA8">
         <v>296.39999999999998</v>
       </c>
-      <c r="AF8">
+      <c r="BB8">
         <v>7.59</v>
       </c>
-      <c r="AG8">
+      <c r="BC8">
         <v>1.42</v>
       </c>
-      <c r="AH8">
+      <c r="BD8">
         <v>-0.1</v>
       </c>
-      <c r="AI8">
+      <c r="BE8">
         <v>0.2</v>
-      </c>
-      <c r="AX8">
-        <v>0.1</v>
-      </c>
-      <c r="AY8">
-        <v>24.6</v>
-      </c>
-      <c r="AZ8">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="BA8">
-        <v>297.5</v>
-      </c>
-      <c r="BB8">
-        <v>7.68</v>
-      </c>
-      <c r="BC8">
-        <v>2.37</v>
-      </c>
-      <c r="BD8">
-        <v>-0.08</v>
-      </c>
-      <c r="BE8">
-        <v>0.18</v>
       </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.3">
@@ -2758,52 +2758,52 @@
         <v>5</v>
       </c>
       <c r="AB9">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="AC9">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="AD9">
-        <v>7.13</v>
+        <v>8.6</v>
       </c>
       <c r="AE9">
-        <v>296.60000000000002</v>
+        <v>297.7</v>
       </c>
       <c r="AF9">
-        <v>7.55</v>
+        <v>7.68</v>
       </c>
       <c r="AG9">
-        <v>0.78</v>
+        <v>1.59</v>
       </c>
       <c r="AH9">
         <v>-0.1</v>
       </c>
       <c r="AI9">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="AY9">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="AZ9">
-        <v>8.6</v>
+        <v>7.13</v>
       </c>
       <c r="BA9">
-        <v>297.7</v>
+        <v>296.60000000000002</v>
       </c>
       <c r="BB9">
-        <v>7.68</v>
+        <v>7.55</v>
       </c>
       <c r="BC9">
-        <v>1.59</v>
+        <v>0.78</v>
       </c>
       <c r="BD9">
         <v>-0.1</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.3">
@@ -2853,52 +2853,52 @@
         <v>10.1</v>
       </c>
       <c r="AB10">
+        <v>0.1</v>
+      </c>
+      <c r="AC10">
+        <v>24.3</v>
+      </c>
+      <c r="AD10">
+        <v>8.91</v>
+      </c>
+      <c r="AE10">
+        <v>296.7</v>
+      </c>
+      <c r="AF10">
+        <v>7.53</v>
+      </c>
+      <c r="AG10">
+        <v>3.18</v>
+      </c>
+      <c r="AH10">
+        <v>-0.08</v>
+      </c>
+      <c r="AI10">
+        <v>-0.06</v>
+      </c>
+      <c r="AX10">
         <v>9.01</v>
       </c>
-      <c r="AC10">
+      <c r="AY10">
         <v>22.6</v>
       </c>
-      <c r="AD10">
+      <c r="AZ10">
         <v>7.28</v>
       </c>
-      <c r="AE10">
+      <c r="BA10">
         <v>299.10000000000002</v>
       </c>
-      <c r="AF10">
+      <c r="BB10">
         <v>7.47</v>
       </c>
-      <c r="AG10">
+      <c r="BC10">
         <v>0.51</v>
       </c>
-      <c r="AH10">
+      <c r="BD10">
         <v>-0.1</v>
       </c>
-      <c r="AI10">
+      <c r="BE10">
         <v>0.24</v>
-      </c>
-      <c r="AX10">
-        <v>0.1</v>
-      </c>
-      <c r="AY10">
-        <v>24.3</v>
-      </c>
-      <c r="AZ10">
-        <v>8.91</v>
-      </c>
-      <c r="BA10">
-        <v>296.7</v>
-      </c>
-      <c r="BB10">
-        <v>7.53</v>
-      </c>
-      <c r="BC10">
-        <v>3.18</v>
-      </c>
-      <c r="BD10">
-        <v>-0.08</v>
-      </c>
-      <c r="BE10">
-        <v>-0.06</v>
       </c>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.3">
@@ -2960,52 +2960,52 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AB11">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="AC11">
-        <v>23.9</v>
+        <v>24.6</v>
       </c>
       <c r="AD11">
-        <v>8.68</v>
+        <v>8.75</v>
       </c>
       <c r="AE11">
-        <v>286.7</v>
+        <v>291.8</v>
       </c>
       <c r="AF11">
-        <v>7.66</v>
+        <v>7.63</v>
       </c>
       <c r="AG11">
-        <v>2.2400000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AH11">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AI11">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AX11">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="AY11">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="AZ11">
-        <v>8.75</v>
+        <v>8.68</v>
       </c>
       <c r="BA11">
-        <v>291.8</v>
+        <v>286.7</v>
       </c>
       <c r="BB11">
-        <v>7.63</v>
+        <v>7.66</v>
       </c>
       <c r="BC11">
-        <v>2.4500000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="BD11">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.3">
@@ -3064,52 +3064,52 @@
         <v>12.6</v>
       </c>
       <c r="AB12">
+        <v>0.1</v>
+      </c>
+      <c r="AC12">
+        <v>25.6</v>
+      </c>
+      <c r="AD12">
+        <v>10.37</v>
+      </c>
+      <c r="AE12">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="AF12">
+        <v>8.11</v>
+      </c>
+      <c r="AG12">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0.03</v>
+      </c>
+      <c r="AX12">
         <v>11.4</v>
       </c>
-      <c r="AC12">
+      <c r="AY12">
         <v>22.2</v>
       </c>
-      <c r="AD12">
+      <c r="AZ12">
         <v>7.3</v>
       </c>
-      <c r="AE12">
+      <c r="BA12">
         <v>300.60000000000002</v>
       </c>
-      <c r="AF12">
+      <c r="BB12">
         <v>7.56</v>
       </c>
-      <c r="AG12">
+      <c r="BC12">
         <v>0.61</v>
       </c>
-      <c r="AH12">
+      <c r="BD12">
         <v>-0.13</v>
       </c>
-      <c r="AI12">
+      <c r="BE12">
         <v>0.68</v>
-      </c>
-      <c r="AX12">
-        <v>0.1</v>
-      </c>
-      <c r="AY12">
-        <v>25.6</v>
-      </c>
-      <c r="AZ12">
-        <v>10.37</v>
-      </c>
-      <c r="BA12">
-        <v>297.10000000000002</v>
-      </c>
-      <c r="BB12">
-        <v>8.11</v>
-      </c>
-      <c r="BC12">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3159,52 +3159,52 @@
         <v>16</v>
       </c>
       <c r="AB13">
+        <v>0.1</v>
+      </c>
+      <c r="AC13">
+        <v>25.6</v>
+      </c>
+      <c r="AD13">
+        <v>10.44</v>
+      </c>
+      <c r="AE13">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="AF13">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="AG13">
+        <v>4.04</v>
+      </c>
+      <c r="AH13">
+        <v>-0.03</v>
+      </c>
+      <c r="AI13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AX13">
         <v>15</v>
       </c>
-      <c r="AC13">
+      <c r="AY13">
         <v>22</v>
       </c>
-      <c r="AD13">
+      <c r="AZ13">
         <v>6.51</v>
       </c>
-      <c r="AE13">
+      <c r="BA13">
         <v>301.2</v>
       </c>
-      <c r="AF13">
+      <c r="BB13">
         <v>7.45</v>
       </c>
-      <c r="AG13">
+      <c r="BC13">
         <v>0.47</v>
       </c>
-      <c r="AH13">
+      <c r="BD13">
         <v>-0.13</v>
       </c>
-      <c r="AI13">
+      <c r="BE13">
         <v>0.93</v>
-      </c>
-      <c r="AX13">
-        <v>0.1</v>
-      </c>
-      <c r="AY13">
-        <v>25.6</v>
-      </c>
-      <c r="AZ13">
-        <v>10.44</v>
-      </c>
-      <c r="BA13">
-        <v>296.10000000000002</v>
-      </c>
-      <c r="BB13">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="BC13">
-        <v>4.04</v>
-      </c>
-      <c r="BD13">
-        <v>-0.03</v>
-      </c>
-      <c r="BE13">
-        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.3">
@@ -3257,52 +3257,52 @@
         <v>13</v>
       </c>
       <c r="AB14">
+        <v>0.1</v>
+      </c>
+      <c r="AC14">
+        <v>26.3</v>
+      </c>
+      <c r="AD14">
+        <v>10.62</v>
+      </c>
+      <c r="AE14">
+        <v>295.89999999999998</v>
+      </c>
+      <c r="AF14">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="AG14">
+        <v>3.44</v>
+      </c>
+      <c r="AH14">
+        <v>-0.03</v>
+      </c>
+      <c r="AI14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX14">
         <v>12</v>
       </c>
-      <c r="AC14">
+      <c r="AY14">
         <v>22.1</v>
       </c>
-      <c r="AD14">
+      <c r="AZ14">
         <v>6.18</v>
       </c>
-      <c r="AE14">
+      <c r="BA14">
         <v>301.3</v>
       </c>
-      <c r="AF14">
+      <c r="BB14">
         <v>7.46</v>
       </c>
-      <c r="AG14">
+      <c r="BC14">
         <v>0.51</v>
       </c>
-      <c r="AH14">
+      <c r="BD14">
         <v>-0.11</v>
       </c>
-      <c r="AI14">
+      <c r="BE14">
         <v>1.6</v>
-      </c>
-      <c r="AX14">
-        <v>0.1</v>
-      </c>
-      <c r="AY14">
-        <v>26.3</v>
-      </c>
-      <c r="AZ14">
-        <v>10.62</v>
-      </c>
-      <c r="BA14">
-        <v>295.89999999999998</v>
-      </c>
-      <c r="BB14">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="BC14">
-        <v>3.44</v>
-      </c>
-      <c r="BD14">
-        <v>-0.03</v>
-      </c>
-      <c r="BE14">
-        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.3">
@@ -3352,52 +3352,52 @@
         <v>15.5</v>
       </c>
       <c r="AB15">
+        <v>0.1</v>
+      </c>
+      <c r="AC15">
+        <v>26.5</v>
+      </c>
+      <c r="AD15">
+        <v>10.69</v>
+      </c>
+      <c r="AE15">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="AF15">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="AG15">
+        <v>4.09</v>
+      </c>
+      <c r="AH15">
+        <v>-0.01</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
         <v>14.5</v>
       </c>
-      <c r="AC15">
+      <c r="AY15">
         <v>22.1</v>
       </c>
-      <c r="AD15">
+      <c r="AZ15">
         <v>6.24</v>
       </c>
-      <c r="AE15">
+      <c r="BA15">
         <v>301.39999999999998</v>
       </c>
-      <c r="AF15">
+      <c r="BB15">
         <v>7.54</v>
       </c>
-      <c r="AG15">
+      <c r="BC15">
         <v>0.41</v>
       </c>
-      <c r="AH15">
+      <c r="BD15">
         <v>-0.1</v>
       </c>
-      <c r="AI15">
+      <c r="BE15">
         <v>0.93</v>
-      </c>
-      <c r="AX15">
-        <v>0.1</v>
-      </c>
-      <c r="AY15">
-        <v>26.5</v>
-      </c>
-      <c r="AZ15">
-        <v>10.69</v>
-      </c>
-      <c r="BA15">
-        <v>294.10000000000002</v>
-      </c>
-      <c r="BB15">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="BC15">
-        <v>4.09</v>
-      </c>
-      <c r="BD15">
-        <v>-0.01</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.3">
@@ -3447,52 +3447,52 @@
         <v>12.5</v>
       </c>
       <c r="AB16">
+        <v>0.1</v>
+      </c>
+      <c r="AC16">
+        <v>26.4</v>
+      </c>
+      <c r="AD16">
+        <v>11.06</v>
+      </c>
+      <c r="AE16">
+        <v>293.7</v>
+      </c>
+      <c r="AF16">
+        <v>8.41</v>
+      </c>
+      <c r="AG16">
+        <v>6.71</v>
+      </c>
+      <c r="AH16">
+        <v>0.06</v>
+      </c>
+      <c r="AI16">
+        <v>-0.02</v>
+      </c>
+      <c r="AX16">
         <v>11.5</v>
       </c>
-      <c r="AC16">
+      <c r="AY16">
         <v>22.3</v>
       </c>
-      <c r="AD16">
+      <c r="AZ16">
         <v>6.51</v>
       </c>
-      <c r="AE16">
+      <c r="BA16">
         <v>299.8</v>
       </c>
-      <c r="AF16">
+      <c r="BB16">
         <v>7.59</v>
       </c>
-      <c r="AG16">
+      <c r="BC16">
         <v>0.39</v>
       </c>
-      <c r="AH16">
+      <c r="BD16">
         <v>-0.11</v>
       </c>
-      <c r="AI16">
+      <c r="BE16">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="AX16">
-        <v>0.1</v>
-      </c>
-      <c r="AY16">
-        <v>26.4</v>
-      </c>
-      <c r="AZ16">
-        <v>11.06</v>
-      </c>
-      <c r="BA16">
-        <v>293.7</v>
-      </c>
-      <c r="BB16">
-        <v>8.41</v>
-      </c>
-      <c r="BC16">
-        <v>6.71</v>
-      </c>
-      <c r="BD16">
-        <v>0.06</v>
-      </c>
-      <c r="BE16">
-        <v>-0.02</v>
       </c>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.3">
@@ -3542,52 +3542,52 @@
         <v>16.100000000000001</v>
       </c>
       <c r="AB17">
+        <v>0.1</v>
+      </c>
+      <c r="AC17">
+        <v>26.8</v>
+      </c>
+      <c r="AD17">
+        <v>10.75</v>
+      </c>
+      <c r="AE17">
+        <v>294</v>
+      </c>
+      <c r="AF17">
+        <v>8.42</v>
+      </c>
+      <c r="AG17">
+        <v>4.53</v>
+      </c>
+      <c r="AH17">
+        <v>-0.01</v>
+      </c>
+      <c r="AI17">
+        <v>-0.03</v>
+      </c>
+      <c r="AX17">
         <v>15.1</v>
       </c>
-      <c r="AC17">
+      <c r="AY17">
         <v>22.1</v>
       </c>
-      <c r="AD17">
+      <c r="AZ17">
         <v>5</v>
       </c>
-      <c r="AE17">
+      <c r="BA17">
         <v>301.60000000000002</v>
       </c>
-      <c r="AF17">
+      <c r="BB17">
         <v>7.49</v>
       </c>
-      <c r="AG17">
+      <c r="BC17">
         <v>0.51</v>
       </c>
-      <c r="AH17">
+      <c r="BD17">
         <v>-0.11</v>
       </c>
-      <c r="AI17">
+      <c r="BE17">
         <v>1.36</v>
-      </c>
-      <c r="AX17">
-        <v>0.1</v>
-      </c>
-      <c r="AY17">
-        <v>26.8</v>
-      </c>
-      <c r="AZ17">
-        <v>10.75</v>
-      </c>
-      <c r="BA17">
-        <v>294</v>
-      </c>
-      <c r="BB17">
-        <v>8.42</v>
-      </c>
-      <c r="BC17">
-        <v>4.53</v>
-      </c>
-      <c r="BD17">
-        <v>-0.01</v>
-      </c>
-      <c r="BE17">
-        <v>-0.03</v>
       </c>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.3">
@@ -4788,62 +4788,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5314,37 +5258,63 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A15D635B-F458-47B2-A53E-9F9C3081B5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5365,4 +5335,34 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>